--- a/test_cases/LS-S2-PE-16-01.xlsx
+++ b/test_cases/LS-S2-PE-16-01.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB537D6-388E-43B4-B8BF-3D77CD4A0A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1136766-AFBA-4A67-BFC8-53252B82326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
+    <sheet name="01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>se registra el usuario</t>
+  </si>
+  <si>
+    <t>PE-16</t>
   </si>
 </sst>
 </file>
@@ -555,6 +558,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -572,36 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -921,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,10 +956,10 @@
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1206,29 +1209,31 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="20"/>
       <c r="D25" s="18" t="s">
         <v>13</v>
@@ -1241,76 +1246,76 @@
       <c r="A27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="29" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>1</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="33" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>2</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="33" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="34"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>3</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="33" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="34"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>4</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="36" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1319,6 +1324,7 @@
     <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E24"/>
     <mergeCell ref="D33:E33"/>
@@ -1335,7 +1341,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1343,18 +1348,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1490,18 +1495,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test_cases/LS-S2-PE-16-01.xlsx
+++ b/test_cases/LS-S2-PE-16-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1136766-AFBA-4A67-BFC8-53252B82326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055BC020-1391-4C6E-9F6A-DB7C2B2BB63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -125,24 +125,9 @@
     <t>Company = UADE</t>
   </si>
   <si>
-    <t>Andress = intermedanos 100</t>
-  </si>
-  <si>
     <t>Andress (line 2)= bunge</t>
   </si>
   <si>
-    <t>City = pinamar</t>
-  </si>
-  <si>
-    <t>State = buenos aires</t>
-  </si>
-  <si>
-    <t>Postal Code = 7167</t>
-  </si>
-  <si>
-    <t>Country = argentina</t>
-  </si>
-  <si>
     <t>Phone = 226715487</t>
   </si>
   <si>
@@ -171,6 +156,21 @@
   </si>
   <si>
     <t>PE-16</t>
+  </si>
+  <si>
+    <t>City = miami</t>
+  </si>
+  <si>
+    <t>State =florida</t>
+  </si>
+  <si>
+    <t>Postal Code = 33101</t>
+  </si>
+  <si>
+    <t>Country = USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andress = 128 NW 5th St </t>
   </si>
 </sst>
 </file>
@@ -558,6 +558,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,12 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,14 +1123,14 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="1"/>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1152,18 +1152,18 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1174,18 +1174,18 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="1"/>
       <c r="D20" s="4">
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1196,7 +1196,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1205,34 +1205,34 @@
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="B23" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="18" t="s">
@@ -1259,63 +1259,63 @@
       <c r="A28" s="14">
         <v>1</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="36"/>
+      <c r="B28" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>2</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="36"/>
+      <c r="B29" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>3</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="36"/>
+      <c r="B30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>4</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="36" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1324,11 +1324,6 @@
     <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B27:C27"/>
@@ -1341,6 +1336,11 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1348,18 +1348,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,18 +1495,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test_cases/LS-S2-PE-16-01.xlsx
+++ b/test_cases/LS-S2-PE-16-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055BC020-1391-4C6E-9F6A-DB7C2B2BB63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B072644-4F33-4AB8-A30F-8C226C47F2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,9 +214,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="8"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,6 +240,7 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,19 +249,13 @@
       <b/>
       <u/>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -494,21 +511,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -522,29 +524,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -552,24 +539,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -588,23 +572,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -925,7 +942,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,42 +964,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
@@ -1003,10 +1020,10 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
@@ -1029,21 +1046,21 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1057,7 +1074,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="8">
         <v>2</v>
       </c>
       <c r="B9" s="3"/>
@@ -1069,7 +1086,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
@@ -1081,7 +1098,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4">
         <v>4</v>
@@ -1091,7 +1108,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="D12" s="4">
         <v>5</v>
@@ -1102,7 +1119,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1"/>
       <c r="D13" s="4">
         <v>6</v>
@@ -1113,7 +1130,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1"/>
       <c r="D14" s="4">
         <v>7</v>
@@ -1124,7 +1141,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="1"/>
       <c r="D15" s="4">
         <v>8</v>
@@ -1135,7 +1152,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1"/>
       <c r="D16" s="4">
         <v>9</v>
@@ -1146,7 +1163,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1"/>
       <c r="D17" s="4">
         <v>10</v>
@@ -1157,7 +1174,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4">
         <v>11</v>
@@ -1168,7 +1185,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1"/>
       <c r="D19" s="4">
         <v>12</v>
@@ -1179,7 +1196,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1"/>
       <c r="D20" s="4">
         <v>13</v>
@@ -1190,7 +1207,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="1"/>
       <c r="D21" s="4">
         <v>14</v>
@@ -1209,113 +1226,113 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="9">
         <v>2</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="9">
         <v>3</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="9">
         <v>4</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1324,6 +1341,10 @@
     <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B27:C27"/>
@@ -1337,10 +1358,6 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1348,21 +1365,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB1A51B3A996C44B977E632F6DEC33D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2bd25917a97534041ca7931abd8cbbac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66b336d3-04c8-489c-ac96-6a14a2b4331d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="173f2ba09421de1668a77200cfb94d82" ns2:_="">
     <xsd:import namespace="66b336d3-04c8-489c-ac96-6a14a2b4331d"/>
@@ -1494,24 +1496,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A42DB-190E-47E2-A19E-CF7C61BA992E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1527,4 +1527,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test_cases/LS-S2-PE-16-01.xlsx
+++ b/test_cases/LS-S2-PE-16-01.xlsx
@@ -3,20 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="01" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CP-01" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CP-02" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CP-03" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="CP-04" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="CP-05" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjWRU22s/Rby89L/NejeSeiKC759A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjkUY/oV97YLO59C1Q4zQofXuvVNg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -151,13 +155,64 @@
   </si>
   <si>
     <t>se registra el usuario</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>First Name = a12</t>
+  </si>
+  <si>
+    <t>Verificar que se pueda crear un usuario con "First name" erróneo</t>
+  </si>
+  <si>
+    <t>En la seccion "Your Personal information" no completa el campo "First name"</t>
+  </si>
+  <si>
+    <t>No se Habilita el boton de "Register"</t>
+  </si>
+  <si>
+    <t>Date of birth = 20/10/2001</t>
+  </si>
+  <si>
+    <t>City = "miami"</t>
+  </si>
+  <si>
+    <t>State = "Florida"</t>
+  </si>
+  <si>
+    <t>Verificar que se pueda crear un usuario con "Date of birth" invalido</t>
+  </si>
+  <si>
+    <t>En la seccion "Your Personal information" coloca fecha invalida en "Date of birth"</t>
+  </si>
+  <si>
+    <t>Email = repetido@gmail.com</t>
+  </si>
+  <si>
+    <t>Verificar que se pueda crear un usuario con "Email" invalido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la seccion "Your Personal information" coloca un Email existente en "Email" </t>
+  </si>
+  <si>
+    <t>Sistema muestra mensaje "There is a user with this email address. Please try signing in”</t>
+  </si>
+  <si>
+    <t>Postal Code = treinta y tres mil ciento uno</t>
+  </si>
+  <si>
+    <t>Verificar que se pueda crear un usuario con "Postal Code" invalido</t>
+  </si>
+  <si>
+    <t>En la seccion "Your Personal information" coloca el codigo postal de forma Erronea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -224,8 +279,51 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +336,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border/>
     <border>
       <left style="thin">
@@ -418,11 +522,20 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -532,6 +645,93 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,6 +742,22 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2118,4 +2334,1169 @@
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="23.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1"/>
+    <row r="5" ht="33.75" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="24.0" customHeight="1">
+      <c r="D6" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="27.75" customHeight="1">
+      <c r="A7" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" ht="24.0" customHeight="1">
+      <c r="A8" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="39">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="57"/>
+      <c r="D9" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="39">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="39">
+        <v>6.0</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="39">
+        <v>7.0</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="39">
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="39">
+        <v>9.0</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="39">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="39">
+        <v>11.0</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="39">
+        <v>12.0</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="39">
+        <v>13.0</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="39">
+        <v>14.0</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="39">
+        <v>15.0</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="23.25" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" ht="27.75" customHeight="1">
+      <c r="A28" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="D29" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="39">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="57"/>
+      <c r="D9" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="39">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="39">
+        <v>6.0</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="39">
+        <v>7.0</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="39">
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="39">
+        <v>9.0</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="39">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="39">
+        <v>11.0</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="39">
+        <v>12.0</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="39">
+        <v>13.0</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="39">
+        <v>14.0</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="39">
+        <v>15.0</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="22.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="39">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="57"/>
+      <c r="D9" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="39">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="39">
+        <v>6.0</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="39">
+        <v>7.0</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="39">
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="39">
+        <v>9.0</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="39">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="39">
+        <v>11.0</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="39">
+        <v>12.0</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="39">
+        <v>13.0</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="39">
+        <v>14.0</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="39">
+        <v>15.0</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" ht="51.0" customHeight="1">
+      <c r="A28" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="24.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="39">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="57"/>
+      <c r="D9" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="39">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="39">
+        <v>6.0</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="39">
+        <v>7.0</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="39">
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="39">
+        <v>9.0</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="39">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="39">
+        <v>11.0</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="39">
+        <v>12.0</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="39">
+        <v>13.0</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="39">
+        <v>14.0</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="39">
+        <v>15.0</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="69">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/test_cases/LS-S2-PE-16-01.xlsx
+++ b/test_cases/LS-S2-PE-16-01.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45A9CB6-B87C-483B-9F09-24CF658DA0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="CP-01" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="CP-02" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="CP-03" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="CP-04" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="CP-05" sheetId="5" r:id="rId8"/>
+    <sheet name="CP-01" sheetId="1" r:id="rId1"/>
+    <sheet name="CP-02" sheetId="2" r:id="rId2"/>
+    <sheet name="CP-03" sheetId="3" r:id="rId3"/>
+    <sheet name="CP-04" sheetId="4" r:id="rId4"/>
+    <sheet name="CP-05" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjkUY/oV97YLO59C1Q4zQofXuvVNg=="/>
@@ -20,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="66">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -206,118 +215,134 @@
   </si>
   <si>
     <t>En la seccion "Your Personal information" coloca el codigo postal de forma Erronea</t>
+  </si>
+  <si>
+    <t>LS-S2-PE-16-02</t>
+  </si>
+  <si>
+    <t>LS-S2-PE-16-03</t>
+  </si>
+  <si>
+    <t>LS-S2-PE-16-04</t>
+  </si>
+  <si>
+    <t>LS-S2-PE-16-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -328,7 +353,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -344,7 +369,13 @@
     </fill>
   </fills>
   <borders count="20">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
@@ -358,8 +389,10 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -369,6 +402,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -383,14 +417,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -401,6 +439,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -409,9 +448,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -424,6 +465,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -438,6 +480,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -452,22 +495,29 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -479,290 +529,296 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="70">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -952,37 +1008,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.14"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="4" width="13.86"/>
-    <col customWidth="1" min="5" max="5" width="11.57"/>
-    <col customWidth="1" min="6" max="6" width="2.57"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="18.29"/>
-    <col customWidth="1" min="9" max="9" width="14.57"/>
-    <col customWidth="1" min="10" max="10" width="18.29"/>
-    <col customWidth="1" min="11" max="11" width="14.57"/>
-    <col customWidth="1" min="12" max="12" width="18.29"/>
-    <col customWidth="1" min="13" max="13" width="14.57"/>
-    <col customWidth="1" min="14" max="14" width="18.29"/>
-    <col customWidth="1" min="15" max="26" width="8.86"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="2.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,371 +1050,377 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.25" customHeight="1">
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="23.25" customHeight="1">
-      <c r="A8" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:23" ht="23.25" customHeight="1">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="23.25" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="12"/>
-      <c r="D9" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="20" t="s">
+    <row r="9" spans="1:23" ht="23.25" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="12"/>
-      <c r="D10" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="20" t="s">
+    <row r="10" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="10"/>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="12"/>
-      <c r="D11" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E11" s="23" t="s">
+    <row r="11" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="10"/>
+      <c r="D11" s="19">
+        <v>4</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="12"/>
-      <c r="D12" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="E12" s="20" t="s">
+    <row r="12" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="10"/>
+      <c r="D12" s="19">
+        <v>5</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="12"/>
-      <c r="D13" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="10"/>
+      <c r="D13" s="19">
+        <v>6</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="12"/>
-      <c r="D14" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="10"/>
+      <c r="D14" s="19">
+        <v>7</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="12"/>
-      <c r="D15" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="10"/>
+      <c r="D15" s="19">
+        <v>8</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="12"/>
-      <c r="D16" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="10"/>
+      <c r="D16" s="19">
+        <v>9</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="12"/>
-      <c r="D17" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="10"/>
+      <c r="D17" s="19">
+        <v>10</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="12"/>
-      <c r="D18" s="21">
-        <v>11.0</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="10"/>
+      <c r="D18" s="19">
+        <v>11</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12"/>
-      <c r="D19" s="21">
-        <v>12.0</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="10"/>
+      <c r="D19" s="19">
+        <v>12</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="12"/>
-      <c r="D20" s="21">
-        <v>13.0</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="10"/>
+      <c r="D20" s="19">
+        <v>13</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="12"/>
-      <c r="D21" s="21">
-        <v>14.0</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="10"/>
+      <c r="D21" s="19">
+        <v>14</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="D22" s="21">
-        <v>15.0</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="D22" s="19">
+        <v>15</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="55"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="36" t="s">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="38" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="B28" s="40" t="s">
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="A28" s="27">
+        <v>1</v>
+      </c>
+      <c r="B28" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" ht="39.75" customHeight="1">
-      <c r="A29" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="B29" s="40" t="s">
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A29" s="27">
+        <v>2</v>
+      </c>
+      <c r="B29" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="40" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="39">
-        <v>3.0</v>
-      </c>
-      <c r="B30" s="40" t="s">
+      <c r="E29" s="53"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="27">
+        <v>3</v>
+      </c>
+      <c r="B30" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="40" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="D31" s="41"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="D32" s="41"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="D33" s="41"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="25.5" customHeight="1"/>
-    <row r="37" ht="25.5" customHeight="1"/>
-    <row r="38" ht="25.5" customHeight="1"/>
-    <row r="39" ht="25.5" customHeight="1"/>
-    <row r="40" ht="25.5" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="E30" s="53"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="37" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="38" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="39" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="40" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="41" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2311,11 +2375,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B32:C32"/>
@@ -2328,584 +2387,595 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="23.71"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="34">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1"/>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1">
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E7" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="27">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="41.4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="42"/>
+      <c r="D9" s="27">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="E9" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.6">
+      <c r="D10" s="27">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E10" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6">
+      <c r="D11" s="27">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="E11" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4">
+      <c r="D12" s="27">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="47" t="s">
+      <c r="E12" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.6">
+      <c r="D13" s="27">
         <v>8</v>
       </c>
-      <c r="D3" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1"/>
-    <row r="5" ht="33.75" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="E13" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27.6">
+      <c r="D14" s="27">
         <v>9</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E14" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4">
+      <c r="D15" s="27">
+        <v>10</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.4">
+      <c r="D16" s="27">
         <v>11</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E16" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6">
+      <c r="D17" s="27">
+        <v>12</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.4">
+      <c r="D18" s="27">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" ht="24.0" customHeight="1">
-      <c r="D6" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="E18" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="41.4">
+      <c r="D19" s="27">
+        <v>14</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27.6">
+      <c r="D20" s="27">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" ht="27.75" customHeight="1">
-      <c r="A7" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" ht="24.0" customHeight="1">
-      <c r="A8" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="39">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="57"/>
-      <c r="D9" s="39">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="39">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="39">
-        <v>6.0</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="39">
-        <v>7.0</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="39">
-        <v>8.0</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="39">
-        <v>9.0</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="39">
-        <v>10.0</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="39">
-        <v>11.0</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="39">
-        <v>12.0</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="39">
-        <v>13.0</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="39">
-        <v>14.0</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="39">
-        <v>15.0</v>
-      </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" ht="23.25" customHeight="1">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="60" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A23" s="55"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:5" ht="27.6">
+      <c r="A24" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:5" ht="14.4">
+      <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="B27" s="40" t="s">
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.4">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="40" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" ht="27.75" customHeight="1">
-      <c r="A28" s="39">
-        <v>2.0</v>
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A28" s="27">
+        <v>2</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A29" s="28"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:E23"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:E28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="34">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="E3" s="35"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E7" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="27">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="42" t="s">
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="20"/>
+      <c r="B9" s="42"/>
+      <c r="D9" s="27">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="E9" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="27">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E10" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="27">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
+      <c r="E11" s="43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="27">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="47" t="s">
+      <c r="E12" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="27">
         <v>8</v>
       </c>
-      <c r="D3" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="E13" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="27">
         <v>9</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E14" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="27">
+        <v>10</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="27">
         <v>11</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E16" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="D17" s="27">
+        <v>12</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="D18" s="27">
         <v>13</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="E18" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="D19" s="27">
+        <v>14</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="D20" s="27">
         <v>15</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="39">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="57"/>
-      <c r="D9" s="39">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="39">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="39">
-        <v>6.0</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="39">
-        <v>7.0</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="39">
-        <v>8.0</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="39">
-        <v>9.0</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="39">
-        <v>10.0</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="39">
-        <v>11.0</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="39">
-        <v>12.0</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="39">
-        <v>13.0</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="39">
-        <v>14.0</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="39">
-        <v>15.0</v>
-      </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="60" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="55"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="B27" s="40" t="s">
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="40" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="39">
-        <v>2.0</v>
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:5" ht="65.400000000000006" customHeight="1">
+      <c r="A28" s="27">
+        <v>2</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="66"/>
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2919,282 +2989,285 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="22.57"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" ht="14.4">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.4">
+      <c r="A2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.4">
+      <c r="A3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="34">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="E3" s="35"/>
+    </row>
+    <row r="5" spans="1:5" ht="27.6">
+      <c r="A5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.4">
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.4">
+      <c r="A7" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E7" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.6">
+      <c r="A8" s="50">
+        <v>1</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="27">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="42" t="s">
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.6">
+      <c r="A9" s="20"/>
+      <c r="B9" s="42"/>
+      <c r="D9" s="27">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="E9" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4">
+      <c r="D10" s="27">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E10" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4">
+      <c r="D11" s="27">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
+      <c r="E11" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4">
+      <c r="D12" s="27">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="47" t="s">
+      <c r="E12" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4">
+      <c r="D13" s="27">
         <v>8</v>
       </c>
-      <c r="D3" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="E13" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4">
+      <c r="D14" s="27">
         <v>9</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E14" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.4">
+      <c r="D15" s="27">
+        <v>10</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.4">
+      <c r="D16" s="27">
         <v>11</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E16" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.4">
+      <c r="D17" s="27">
+        <v>12</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.4">
+      <c r="D18" s="27">
         <v>13</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="E18" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.6">
+      <c r="D19" s="27">
+        <v>14</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4">
+      <c r="D20" s="27">
         <v>15</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="39">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="57"/>
-      <c r="D9" s="39">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="39">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="39">
-        <v>6.0</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="39">
-        <v>7.0</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="39">
-        <v>8.0</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="39">
-        <v>9.0</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="39">
-        <v>10.0</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="39">
-        <v>11.0</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="39">
-        <v>12.0</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="39">
-        <v>13.0</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="39">
-        <v>14.0</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="39">
-        <v>15.0</v>
-      </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:5" ht="14.4">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="60" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.4">
+      <c r="A23" s="55"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:5" ht="27.6">
+      <c r="A24" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:5" ht="14.4">
+      <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="B27" s="40" t="s">
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.4">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="40" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" ht="51.0" customHeight="1">
-      <c r="A28" s="69">
-        <v>2.0</v>
-      </c>
-      <c r="B28" s="70" t="s">
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:5" ht="51" customHeight="1">
+      <c r="A28" s="51">
+        <v>2</v>
+      </c>
+      <c r="B28" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="70" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3208,295 +3281,298 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="24.57"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="34">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="E3" s="35"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E7" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="50">
+        <v>1</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="27">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="42" t="s">
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.6">
+      <c r="A9" s="20"/>
+      <c r="B9" s="42"/>
+      <c r="D9" s="27">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="E9" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="27">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E10" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="27">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
+      <c r="E11" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="27">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="47" t="s">
+      <c r="E12" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="27">
         <v>8</v>
       </c>
-      <c r="D3" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="E13" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="27">
         <v>9</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E14" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="27">
+        <v>10</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="27">
         <v>11</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E16" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="D17" s="27">
+        <v>12</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="D18" s="27">
         <v>13</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="E18" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="D19" s="27">
+        <v>14</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="D20" s="27">
         <v>15</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="39">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="57"/>
-      <c r="D9" s="39">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="39">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="39">
-        <v>6.0</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="39">
-        <v>7.0</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="39">
-        <v>8.0</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="39">
-        <v>9.0</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="39">
-        <v>10.0</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="39">
-        <v>11.0</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="39">
-        <v>12.0</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="39">
-        <v>13.0</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="39">
-        <v>14.0</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="39">
-        <v>15.0</v>
-      </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="60" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="55"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="B27" s="40" t="s">
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="40" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="69">
-        <v>2.0</v>
-      </c>
-      <c r="B28" s="70" t="s">
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:5" ht="57" customHeight="1">
+      <c r="A28" s="51">
+        <v>2</v>
+      </c>
+      <c r="B28" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="70" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:E23"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>